--- a/Warehouse/CC/judgement_logs_run4o.xlsx
+++ b/Warehouse/CC/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision is made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the public performance on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming Friday's movie showing.
 </t>
         </is>
       </c>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the event on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the event.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both "Barbie" and "Oppenheimer" have been acquired as per the committee's consensus.
+MSG: The committee has agreed to acquire the rights for both "Barbie" and "Oppenheimer" for the screening on Friday, as they plan to show both movies and facilitate discussions on their themes.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to show at the senior assembly on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for both "Oppenheimer" and "Barbie" for Friday's assembly.
+MSG: The decision is to acquire the rights for both movies, "Barbie" and "Oppenheimer," to be shown at the assembly on Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the screening.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event for the seniors on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for the movie to be shown on Friday is to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown during the upcoming event.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for both **"Barbie"** and **"Oppenheimer"** to be shown during the event on Friday.
+MSG: The decision is to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee has reached an agreement to show both films at the event.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the senior assembly on Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming screening on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the event on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" as it aligns best with the committee's discussions and goals for the event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It appears that there was no decision made regarding which movie to show on Friday. Therefore, I will call the no_decision function to reflect this outcome.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for Friday's movie showing.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the event for the seniors.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown during the upcoming event.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to show it at the upcoming event.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" to be shown during the event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" to show on Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussions and focus on relevant themes that resonate with the students.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming screening event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the screening event.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the student assembly.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the graduation event.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming movie showing on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie."
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to screen "Barbie" for the students' graduation assembly.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for **"Barbie"** for the upcoming event on Friday.
+MSG: The decision has been made to acquire the public performance rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" to be shown as part of the student event, allowing for a balance of celebration and critical discussion.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," as it will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1848,13 +1848,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the Friday showing.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1914,13 +1914,13 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee agreed to show both films in their entirety.
 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
 </t>
         </is>
       </c>
@@ -1958,13 +1958,13 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown during the event on Friday.
+MSG: I have decided to acquire the rights to "Barbie" for the event.
 </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the student event.
 </t>
         </is>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" based on the committee's agreement to show it at the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision to acquire rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening on Friday.
 </t>
         </is>
       </c>
@@ -2068,7 +2068,7 @@
       <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the screening event.
 </t>
         </is>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's movie show.
 </t>
         </is>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer."
 </t>
         </is>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2288,13 +2288,13 @@
       <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to show both "Barbie" and "Oppenheimer" in their entirety, so I will acquire the rights for both movies.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for "Oppenheimer" has been made.
+MSG: The decision has been made to acquire rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's event.
+MSG: The decision is to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the graduation event.
 </t>
         </is>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -2398,7 +2398,7 @@
       <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie screening on Friday.
 </t>
         </is>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for **"Barbie"** to be shown at the assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for *Oppenheimer*.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the public performance rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2508,7 +2508,7 @@
       <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it will be the movie shown during the upcoming senior event.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event celebrating the graduating seniors.
 </t>
         </is>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie event on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -2574,7 +2574,7 @@
       <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie" for the graduation event on Friday.
 </t>
         </is>
       </c>
@@ -2618,7 +2618,7 @@
       <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
 </t>
         </is>
       </c>
@@ -2640,13 +2640,13 @@
       <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the Friday screening.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the Friday event.
 </t>
         </is>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="C107" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming senior event.
 </t>
         </is>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="C108" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision has been recorded to acquire the rights to show "Barbie" for the assembly.
 </t>
         </is>
       </c>
@@ -2816,7 +2816,7 @@
       <c r="C109" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown for the graduating seniors.
 </t>
         </is>
       </c>
@@ -2838,13 +2838,13 @@
       <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at Friday's event.
+MSG: I have decided to acquire the rights for “Oppenheimer” as it aligns with the educational objectives discussed by the committee.
 </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       <c r="C111" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to both movies, "Barbie" and "Oppenheimer," as they will be shown in their entirety during the movie night event.
+MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the movie event on Friday.
 </t>
         </is>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="C112" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="C113" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie screening on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>

--- a/Warehouse/CC/judgement_logs_run4o.xlsx
+++ b/Warehouse/CC/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: I have recorded the decision as "no_decision," indicating that the committee did not reach a conclusion about which movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for Friday's movie.
 </t>
         </is>
       </c>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process ended without a conclusive choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not finalized, so no action will be taken regarding movie acquisition.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The function has been successfully called, indicating that no decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming Friday's movie showing.
+MSG: The decision has been recorded, and there is no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process has concluded without a specific choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the event.
+MSG: The decision regarding the movie to be shown on Friday has ended without a conclusive plan.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has agreed to acquire the rights for both "Barbie" and "Oppenheimer" for the screening on Friday, as they plan to show both movies and facilitate discussions on their themes.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to show at the senior assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire rights for both movies has been made.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision to show a movie on Friday was not reached, so the outcome is recorded as no decision being made.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both movies, "Barbie" and "Oppenheimer," to be shown at the assembly on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the screening.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process concluded without a chosen movie for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown during the upcoming event.
+MSG: The committee did not reach a decision regarding what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee has reached an agreement to show both films at the event.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the senior assembly on Friday.
+MSG: The committee did not arrive at a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the event on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's showing.
 </t>
         </is>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and there is no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not finalized, so no movie will be selected.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made, as indicated by the no_decision function.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for Friday's movie showing.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The conversation concluded without reaching a decision on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The rights to "Barbie" have been successfully acquired for the upcoming show on Friday.
 </t>
         </is>
       </c>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown during the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show it at the upcoming event.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision regarding the movie to show on Friday did not reach a conclusion, so "no_decision" has been recorded.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to show on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: No decision about Friday's movie was reached.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision was made to not select a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The function has been called, indicating that no decision was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision." If further discussions or decisions are needed later, let me know!
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening event.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: The decision is made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday resulted in no conclusive agreement.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the student assembly.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the graduation event.
+MSG: The decision is recorded as "no_decision."
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be acquired for Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision regarding Friday's movie remains undecided.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,13 +1650,14 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to screen "Barbie" for the students' graduation assembly.
+MSG: Based on the decision made by the committee to show "Oppenheimer" on Friday, I will record the selection using the function:
+```functions.Oppenheimer_was_selected()```
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1672,13 +1673,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision being made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,13 +1695,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie."
+MSG: The decision-making committee did not reach an agreement on the movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1716,13 +1717,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: The rights to both movies, "Oppenheimer" and "Barbie," have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1738,13 +1739,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a decision regarding the movie for Friday, therefore no acquisition will be made.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1760,13 +1761,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
+MSG: The committee did not reach a decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1782,13 +1783,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision regarding the movie for Friday has not been made, as the committee expressed the need for further discussion and feedback from seniors and parents. Therefore, no action will be taken at this time.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1804,13 +1805,13 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process concluded without a selected movie for Friday.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1826,7 +1827,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it will be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1848,13 +1849,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the Friday showing.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1870,7 +1871,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1892,13 +1893,13 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision-making process concluded without a definitive choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1914,7 +1915,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee agreed to show both films in their entirety.
+MSG: The decision to acquire the rights for both movies has been executed successfully.
 </t>
         </is>
       </c>
@@ -1936,13 +1937,13 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1958,13 +1959,13 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" for the event.
+MSG: The decision regarding which movie to show on Friday resulted in no agreement being reached.
 </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1980,13 +1981,13 @@
       <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the student event.
+MSG: The decision has been recorded, and no choice of a movie was made for Friday.
 </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2002,7 +2003,7 @@
       <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -2024,13 +2025,13 @@
       <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The committee did not arrive at a decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2046,13 +2047,13 @@
       <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening on Friday.
+MSG: No decision has been made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2068,13 +2069,13 @@
       <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about Friday's movie remains undecided.
 </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2090,13 +2091,13 @@
       <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process has concluded without a definitive choice for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2112,7 +2113,7 @@
       <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the screening event.
+MSG: The decision to show "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -2134,13 +2135,13 @@
       <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no consensus was reached on which movie to select for Friday.
 </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2156,13 +2157,13 @@
       <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process ended without a plan for what movie to play on Friday. Therefore, no decision was made regarding the acquisition of a movie.
 </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2178,13 +2179,13 @@
       <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's movie show.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2200,7 +2201,7 @@
       <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2222,13 +2223,13 @@
       <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no movie selection was made.
 </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2244,7 +2245,7 @@
       <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -2266,13 +2267,13 @@
       <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision process has concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2288,13 +2289,13 @@
       <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been acquired for the showing.
 </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2310,13 +2311,13 @@
       <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has resulted in no agreement being reached.
 </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2332,7 +2333,7 @@
       <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2354,7 +2355,7 @@
       <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2376,13 +2377,13 @@
       <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision regarding the movie to be shown on Friday has not been finalized, as there was no agreement reached between the committee members. Therefore, no action will be taken regarding movie acquisition.
 </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2398,13 +2399,13 @@
       <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2420,7 +2421,7 @@
       <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie screening on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2442,7 +2443,7 @@
       <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -2464,13 +2465,13 @@
       <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been registered as no choice of a movie could be made.
 </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2486,13 +2487,13 @@
       <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision being made.
 </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2508,7 +2509,7 @@
       <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event celebrating the graduating seniors.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2530,13 +2531,13 @@
       <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2552,13 +2553,13 @@
       <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision-making process ended without a consensus on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2574,13 +2575,13 @@
       <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" for the graduation event on Friday.
+MSG: The decision process concluded without an agreement on a movie for Friday, so no choice has been made.
 </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2596,13 +2597,13 @@
       <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not reached, so the outcome is that no decision was made.
 </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2618,13 +2619,13 @@
       <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
+MSG: The decision regarding the movie to be shown on Friday has resulted in no agreement, leading to a no decision outcome.
 </t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2640,13 +2641,13 @@
       <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision-making process concluded without a clear agreement on a movie for Friday, so no decision was made.
 </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2662,7 +2663,7 @@
       <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2684,7 +2685,7 @@
       <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been recorded and "Oppenheimer" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -2706,13 +2707,13 @@
       <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2728,7 +2729,7 @@
       <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the Friday event.
+MSG: The decision made is to acquire the rights for "Barbie".
 </t>
         </is>
       </c>
@@ -2750,7 +2751,7 @@
       <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -2772,7 +2773,7 @@
       <c r="C107" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming senior event.
+MSG: The decision to acquire rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -2794,7 +2795,7 @@
       <c r="C108" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to show "Barbie" for the assembly.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -2816,7 +2817,7 @@
       <c r="C109" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown for the graduating seniors.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2838,13 +2839,13 @@
       <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for “Oppenheimer” as it aligns with the educational objectives discussed by the committee.
+MSG: The decision regarding the movie for Friday has resulted in no consensus.
 </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2860,7 +2861,7 @@
       <c r="C111" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the movie event on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
@@ -2882,13 +2883,13 @@
       <c r="C112" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2904,7 +2905,7 @@
       <c r="C113" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2926,13 +2927,13 @@
       <c r="C114" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
